--- a/T3/Tablas T2.xlsx
+++ b/T3/Tablas T2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DiegoYera\Desktop\2025-2\Econo_Med\Tareas_Economed\T3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81228247-B96C-4723-84EE-176D6660C093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E325F82-04F2-4D5D-B4E0-91775C6742A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="preg1-Norma" sheetId="6" r:id="rId1"/>
     <sheet name="preg2- Pol Optima" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="93">
   <si>
     <t>Problema 2- T2</t>
   </si>
@@ -402,6 +402,39 @@
   <si>
     <t>Nota: * se refiere al incremento porcentual del caso con política eficiente respecto del caso con norma.</t>
   </si>
+  <si>
+    <t>mp Miles Ton</t>
+  </si>
+  <si>
+    <t>sox Miles Ton</t>
+  </si>
+  <si>
+    <t>nox Miles Ton</t>
+  </si>
+  <si>
+    <t>co2 Miles Ton</t>
+  </si>
+  <si>
+    <t>mp US$</t>
+  </si>
+  <si>
+    <t>sox US$</t>
+  </si>
+  <si>
+    <t>nox US$</t>
+  </si>
+  <si>
+    <t>co2 US$</t>
+  </si>
+  <si>
+    <t>Costo total US$ (no incluye daño ambiental)</t>
+  </si>
+  <si>
+    <t>Pauta Sin Políticas</t>
+  </si>
+  <si>
+    <t>Nosotros Sin Politicas</t>
+  </si>
 </sst>
 </file>
 
@@ -411,7 +444,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -443,12 +476,6 @@
       <color indexed="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -487,7 +514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -537,6 +564,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,7 +595,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>645792</xdr:colOff>
+      <xdr:colOff>398142</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>47050</xdr:rowOff>
     </xdr:to>
@@ -1145,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D59" sqref="D58:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1159,6 +1188,7 @@
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -1670,7 +1700,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1690,7 +1720,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -1710,7 +1740,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -1730,7 +1760,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -1749,8 +1779,17 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P36" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1769,8 +1808,20 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P37" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="S37" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -1789,8 +1840,21 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P38" s="2">
+        <v>253.49</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>239.17</v>
+      </c>
+      <c r="R38" s="2">
+        <v>98.86</v>
+      </c>
+      <c r="S38" s="2">
+        <v>27174.34</v>
+      </c>
+      <c r="T38" s="2"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -1809,8 +1873,23 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P39" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q39" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="R39" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="S39" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="T39" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -1829,8 +1908,24 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P40" s="2">
+        <v>617749981.33000004</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>321301276.13999999</v>
+      </c>
+      <c r="R40" s="2">
+        <v>156034731.63</v>
+      </c>
+      <c r="S40" s="2">
+        <v>0</v>
+      </c>
+      <c r="T40" s="2">
+        <v>1817153900</v>
+      </c>
+      <c r="V40" s="2"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -1849,8 +1944,12 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>53</v>
       </c>
@@ -1870,15 +1969,24 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P43" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="24"/>
+      <c r="V43" s="24"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -1895,16 +2003,41 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P44" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="S44" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P45" s="2">
+        <v>253.49</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>239.17</v>
+      </c>
+      <c r="R45" s="2">
+        <v>98.86</v>
+      </c>
+      <c r="S45" s="2">
+        <v>27174.34</v>
+      </c>
+      <c r="T45" s="2"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>54</v>
       </c>
@@ -1917,8 +2050,23 @@
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="18"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P46" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q46" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="R46" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="S46" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="T46" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -1927,8 +2075,24 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P47" s="2">
+        <v>617749981.33000004</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>321301276.13999999</v>
+      </c>
+      <c r="R47" s="2">
+        <v>156034731.63</v>
+      </c>
+      <c r="S47" s="2">
+        <v>0</v>
+      </c>
+      <c r="T47" s="2">
+        <v>1817153900</v>
+      </c>
+      <c r="V47" s="2"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B48" s="10"/>
       <c r="C48" s="5" t="s">
         <v>55</v>
@@ -2124,12 +2288,8 @@
         <v>12</v>
       </c>
       <c r="B58" s="10"/>
-      <c r="C58" s="13">
-        <v>0</v>
-      </c>
-      <c r="D58" s="13">
-        <v>0</v>
-      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
       <c r="E58" s="15" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2144,12 +2304,8 @@
         <v>13</v>
       </c>
       <c r="B59" s="10"/>
-      <c r="C59" s="10">
-        <v>0</v>
-      </c>
-      <c r="D59" s="10">
-        <v>0</v>
-      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
       <c r="E59" s="15" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2164,12 +2320,8 @@
         <v>53</v>
       </c>
       <c r="B60" s="11"/>
-      <c r="C60" s="11">
-        <v>0</v>
-      </c>
-      <c r="D60" s="11">
-        <v>0</v>
-      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
       <c r="E60" s="22" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2568,9 +2720,11 @@
       <c r="E103" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B77:C77"/>
+    <mergeCell ref="P36:V36"/>
+    <mergeCell ref="P43:V43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
